--- a/xlsx_files/CS Senior.xlsx
+++ b/xlsx_files/CS Senior.xlsx
@@ -43,7 +43,7 @@
       <sz val="14"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
@@ -54,6 +54,30 @@
       <patternFill patternType="solid">
         <fgColor rgb="00E0E0E0"/>
         <bgColor rgb="00E0E0E0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
+        <bgColor rgb="00FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D0CECE"/>
+        <bgColor rgb="00D0CECE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0092D050"/>
+        <bgColor rgb="0092D050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -96,7 +120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -108,11 +132,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -543,12 +573,32 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="F6" s="5" t="inlineStr">
-        <is>
-          <t>INFORMATION SECURITY
-Ayman Aljarbouh
-Green classroom
-09:00-10:30</t>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Internet of Things
+09:00-10:30
+room:Grey classroom: 203</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Information Security
+09:00-10:30
+room:Grey classroom: 203</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Modeling &amp; Simulation
+09:00-10:30
+room:Grey classroom: 203</t>
+        </is>
+      </c>
+      <c r="F6" s="6" t="inlineStr">
+        <is>
+          <t>Information Security
+09:00-10:30
+room:Green classroom: 204</t>
         </is>
       </c>
     </row>
@@ -558,7 +608,10 @@
           <t>09:15</t>
         </is>
       </c>
-      <c r="F7" s="6" t="n"/>
+      <c r="B7" s="7" t="n"/>
+      <c r="C7" s="7" t="n"/>
+      <c r="D7" s="7" t="n"/>
+      <c r="F7" s="7" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
@@ -566,7 +619,10 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="F8" s="6" t="n"/>
+      <c r="B8" s="7" t="n"/>
+      <c r="C8" s="7" t="n"/>
+      <c r="D8" s="7" t="n"/>
+      <c r="F8" s="7" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
@@ -574,7 +630,10 @@
           <t>09:45</t>
         </is>
       </c>
-      <c r="F9" s="6" t="n"/>
+      <c r="B9" s="7" t="n"/>
+      <c r="C9" s="7" t="n"/>
+      <c r="D9" s="7" t="n"/>
+      <c r="F9" s="7" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
@@ -582,7 +641,10 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="F10" s="6" t="n"/>
+      <c r="B10" s="7" t="n"/>
+      <c r="C10" s="7" t="n"/>
+      <c r="D10" s="7" t="n"/>
+      <c r="F10" s="7" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
@@ -590,7 +652,10 @@
           <t>10:15</t>
         </is>
       </c>
-      <c r="F11" s="7" t="n"/>
+      <c r="B11" s="8" t="n"/>
+      <c r="C11" s="8" t="n"/>
+      <c r="D11" s="8" t="n"/>
+      <c r="F11" s="8" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
@@ -612,12 +677,18 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="F14" s="5" t="inlineStr">
-        <is>
-          <t>MODELING &amp; SIMULATION
-Nelson Max
-Green classroom
-11:00-12:30</t>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>Modeling &amp; Simulation
+11:00-12:30
+room:Grey classroom: 203</t>
+        </is>
+      </c>
+      <c r="F14" s="6" t="inlineStr">
+        <is>
+          <t>Modeling &amp; Simulation
+11:00-12:30
+room:Green classroom: 204</t>
         </is>
       </c>
     </row>
@@ -627,7 +698,8 @@
           <t>11:15</t>
         </is>
       </c>
-      <c r="F15" s="6" t="n"/>
+      <c r="B15" s="7" t="n"/>
+      <c r="F15" s="7" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
@@ -635,7 +707,8 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="F16" s="6" t="n"/>
+      <c r="B16" s="7" t="n"/>
+      <c r="F16" s="7" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
@@ -643,7 +716,8 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="F17" s="6" t="n"/>
+      <c r="B17" s="7" t="n"/>
+      <c r="F17" s="7" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
@@ -651,7 +725,8 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="F18" s="6" t="n"/>
+      <c r="B18" s="7" t="n"/>
+      <c r="F18" s="7" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
@@ -659,7 +734,8 @@
           <t>12:15</t>
         </is>
       </c>
-      <c r="F19" s="7" t="n"/>
+      <c r="B19" s="8" t="n"/>
+      <c r="F19" s="8" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
@@ -709,6 +785,20 @@
           <t>14:00</t>
         </is>
       </c>
+      <c r="D26" s="9" t="inlineStr">
+        <is>
+          <t>Safety Management
+14:00-15:30
+room:Yellow classroom: 209</t>
+        </is>
+      </c>
+      <c r="E26" s="9" t="inlineStr">
+        <is>
+          <t>Final Year Project II
+14:00-15:30
+room:Yellow classroom: 209</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
@@ -716,6 +806,8 @@
           <t>14:15</t>
         </is>
       </c>
+      <c r="D27" s="7" t="n"/>
+      <c r="E27" s="7" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="4" t="inlineStr">
@@ -723,6 +815,8 @@
           <t>14:30</t>
         </is>
       </c>
+      <c r="D28" s="7" t="n"/>
+      <c r="E28" s="7" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
@@ -730,6 +824,8 @@
           <t>14:45</t>
         </is>
       </c>
+      <c r="D29" s="7" t="n"/>
+      <c r="E29" s="7" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="4" t="inlineStr">
@@ -737,6 +833,8 @@
           <t>15:00</t>
         </is>
       </c>
+      <c r="D30" s="7" t="n"/>
+      <c r="E30" s="7" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
@@ -744,6 +842,8 @@
           <t>15:15</t>
         </is>
       </c>
+      <c r="D31" s="8" t="n"/>
+      <c r="E31" s="8" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
@@ -765,12 +865,25 @@
           <t>16:00</t>
         </is>
       </c>
+      <c r="C34" s="6" t="inlineStr">
+        <is>
+          <t>Final Year Project II
+16:00-17:30
+room:Green classroom: 204</t>
+        </is>
+      </c>
+      <c r="D34" s="6" t="inlineStr">
+        <is>
+          <t>Safety Management
+16:00-17:30
+room:Green classroom: 204</t>
+        </is>
+      </c>
       <c r="F34" s="5" t="inlineStr">
         <is>
-          <t>INTERNET OF THINGS
-Dmytro Zubov
-Grey classroom
-16:00-17:30</t>
+          <t>Internet of Things
+16:00-17:30
+room:Grey classroom: 203</t>
         </is>
       </c>
     </row>
@@ -780,7 +893,9 @@
           <t>16:15</t>
         </is>
       </c>
-      <c r="F35" s="6" t="n"/>
+      <c r="C35" s="7" t="n"/>
+      <c r="D35" s="7" t="n"/>
+      <c r="F35" s="7" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="4" t="inlineStr">
@@ -788,7 +903,9 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="F36" s="6" t="n"/>
+      <c r="C36" s="7" t="n"/>
+      <c r="D36" s="7" t="n"/>
+      <c r="F36" s="7" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
@@ -796,7 +913,9 @@
           <t>16:45</t>
         </is>
       </c>
-      <c r="F37" s="6" t="n"/>
+      <c r="C37" s="7" t="n"/>
+      <c r="D37" s="7" t="n"/>
+      <c r="F37" s="7" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="4" t="inlineStr">
@@ -804,7 +923,9 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="F38" s="6" t="n"/>
+      <c r="C38" s="7" t="n"/>
+      <c r="D38" s="7" t="n"/>
+      <c r="F38" s="7" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
@@ -812,7 +933,9 @@
           <t>17:15</t>
         </is>
       </c>
-      <c r="F39" s="7" t="n"/>
+      <c r="C39" s="8" t="n"/>
+      <c r="D39" s="8" t="n"/>
+      <c r="F39" s="8" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="4" t="inlineStr">
@@ -1004,16 +1127,24 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="18">
+    <mergeCell ref="E26:E31"/>
+    <mergeCell ref="C34:C39"/>
+    <mergeCell ref="D26:D31"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B6:B11"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C6:C11"/>
     <mergeCell ref="F34:F39"/>
+    <mergeCell ref="D6:D11"/>
+    <mergeCell ref="D34:D39"/>
     <mergeCell ref="F6:F11"/>
+    <mergeCell ref="B14:B19"/>
     <mergeCell ref="F14:F19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/xlsx_files/CS Senior.xlsx
+++ b/xlsx_files/CS Senior.xlsx
@@ -120,7 +120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -141,6 +141,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -785,14 +788,21 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="D26" s="9" t="inlineStr">
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>Safety Management
+14:00-15:30
+room:Grey classroom: 203</t>
+        </is>
+      </c>
+      <c r="E26" s="9" t="inlineStr">
         <is>
           <t>Safety Management
 14:00-15:30
 room:Yellow classroom: 209</t>
         </is>
       </c>
-      <c r="E26" s="9" t="inlineStr">
+      <c r="F26" s="9" t="inlineStr">
         <is>
           <t>Final Year Project II
 14:00-15:30
@@ -806,8 +816,9 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="D27" s="7" t="n"/>
+      <c r="C27" s="7" t="n"/>
       <c r="E27" s="7" t="n"/>
+      <c r="F27" s="7" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="4" t="inlineStr">
@@ -815,8 +826,9 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="D28" s="7" t="n"/>
+      <c r="C28" s="7" t="n"/>
       <c r="E28" s="7" t="n"/>
+      <c r="F28" s="7" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
@@ -824,8 +836,9 @@
           <t>14:45</t>
         </is>
       </c>
-      <c r="D29" s="7" t="n"/>
+      <c r="C29" s="7" t="n"/>
       <c r="E29" s="7" t="n"/>
+      <c r="F29" s="7" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="4" t="inlineStr">
@@ -833,8 +846,9 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="D30" s="7" t="n"/>
+      <c r="C30" s="7" t="n"/>
       <c r="E30" s="7" t="n"/>
+      <c r="F30" s="7" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
@@ -842,8 +856,9 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="D31" s="8" t="n"/>
+      <c r="C31" s="8" t="n"/>
       <c r="E31" s="8" t="n"/>
+      <c r="F31" s="8" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
@@ -865,18 +880,18 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="C34" s="6" t="inlineStr">
+      <c r="B34" s="9" t="inlineStr">
         <is>
           <t>Final Year Project II
 16:00-17:30
-room:Green classroom: 204</t>
-        </is>
-      </c>
-      <c r="D34" s="6" t="inlineStr">
-        <is>
-          <t>Safety Management
+room:Yellow classroom: 209</t>
+        </is>
+      </c>
+      <c r="C34" s="10" t="inlineStr">
+        <is>
+          <t>Information Security
 16:00-17:30
-room:Green classroom: 204</t>
+room:White classroom: 202</t>
         </is>
       </c>
       <c r="F34" s="5" t="inlineStr">
@@ -893,8 +908,8 @@
           <t>16:15</t>
         </is>
       </c>
+      <c r="B35" s="7" t="n"/>
       <c r="C35" s="7" t="n"/>
-      <c r="D35" s="7" t="n"/>
       <c r="F35" s="7" t="n"/>
     </row>
     <row r="36">
@@ -903,8 +918,8 @@
           <t>16:30</t>
         </is>
       </c>
+      <c r="B36" s="7" t="n"/>
       <c r="C36" s="7" t="n"/>
-      <c r="D36" s="7" t="n"/>
       <c r="F36" s="7" t="n"/>
     </row>
     <row r="37">
@@ -913,8 +928,8 @@
           <t>16:45</t>
         </is>
       </c>
+      <c r="B37" s="7" t="n"/>
       <c r="C37" s="7" t="n"/>
-      <c r="D37" s="7" t="n"/>
       <c r="F37" s="7" t="n"/>
     </row>
     <row r="38">
@@ -923,8 +938,8 @@
           <t>17:00</t>
         </is>
       </c>
+      <c r="B38" s="7" t="n"/>
       <c r="C38" s="7" t="n"/>
-      <c r="D38" s="7" t="n"/>
       <c r="F38" s="7" t="n"/>
     </row>
     <row r="39">
@@ -933,8 +948,8 @@
           <t>17:15</t>
         </is>
       </c>
+      <c r="B39" s="8" t="n"/>
       <c r="C39" s="8" t="n"/>
-      <c r="D39" s="8" t="n"/>
       <c r="F39" s="8" t="n"/>
     </row>
     <row r="40">
@@ -1127,24 +1142,25 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="E26:E31"/>
+  <mergeCells count="19">
     <mergeCell ref="C34:C39"/>
-    <mergeCell ref="D26:D31"/>
-    <mergeCell ref="C3:C4"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="E3:E4"/>
     <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B6:B11"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="D3:D4"/>
     <mergeCell ref="C6:C11"/>
     <mergeCell ref="F34:F39"/>
     <mergeCell ref="D6:D11"/>
-    <mergeCell ref="D34:D39"/>
     <mergeCell ref="F6:F11"/>
+    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="D3:D4"/>
     <mergeCell ref="B14:B19"/>
+    <mergeCell ref="F26:F31"/>
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="E26:E31"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="B6:B11"/>
     <mergeCell ref="F14:F19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/xlsx_files/CS Senior.xlsx
+++ b/xlsx_files/CS Senior.xlsx
@@ -132,6 +132,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -141,9 +144,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -578,26 +578,26 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>Internet of Things
+          <t>Final Year Project II
 09:00-10:30
-room:Grey classroom: 203</t>
-        </is>
-      </c>
-      <c r="C6" s="5" t="inlineStr">
+room:Creative room: 104</t>
+        </is>
+      </c>
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>Information Security
 09:00-10:30
 room:Grey classroom: 203</t>
         </is>
       </c>
-      <c r="D6" s="5" t="inlineStr">
+      <c r="D6" s="6" t="inlineStr">
         <is>
           <t>Modeling &amp; Simulation
 09:00-10:30
 room:Grey classroom: 203</t>
         </is>
       </c>
-      <c r="F6" s="6" t="inlineStr">
+      <c r="F6" s="7" t="inlineStr">
         <is>
           <t>Information Security
 09:00-10:30
@@ -611,10 +611,10 @@
           <t>09:15</t>
         </is>
       </c>
-      <c r="B7" s="7" t="n"/>
-      <c r="C7" s="7" t="n"/>
-      <c r="D7" s="7" t="n"/>
-      <c r="F7" s="7" t="n"/>
+      <c r="B7" s="8" t="n"/>
+      <c r="C7" s="8" t="n"/>
+      <c r="D7" s="8" t="n"/>
+      <c r="F7" s="8" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
@@ -622,10 +622,10 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B8" s="7" t="n"/>
-      <c r="C8" s="7" t="n"/>
-      <c r="D8" s="7" t="n"/>
-      <c r="F8" s="7" t="n"/>
+      <c r="B8" s="8" t="n"/>
+      <c r="C8" s="8" t="n"/>
+      <c r="D8" s="8" t="n"/>
+      <c r="F8" s="8" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
@@ -633,10 +633,10 @@
           <t>09:45</t>
         </is>
       </c>
-      <c r="B9" s="7" t="n"/>
-      <c r="C9" s="7" t="n"/>
-      <c r="D9" s="7" t="n"/>
-      <c r="F9" s="7" t="n"/>
+      <c r="B9" s="8" t="n"/>
+      <c r="C9" s="8" t="n"/>
+      <c r="D9" s="8" t="n"/>
+      <c r="F9" s="8" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
@@ -644,10 +644,10 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B10" s="7" t="n"/>
-      <c r="C10" s="7" t="n"/>
-      <c r="D10" s="7" t="n"/>
-      <c r="F10" s="7" t="n"/>
+      <c r="B10" s="8" t="n"/>
+      <c r="C10" s="8" t="n"/>
+      <c r="D10" s="8" t="n"/>
+      <c r="F10" s="8" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
@@ -655,10 +655,10 @@
           <t>10:15</t>
         </is>
       </c>
-      <c r="B11" s="8" t="n"/>
-      <c r="C11" s="8" t="n"/>
-      <c r="D11" s="8" t="n"/>
-      <c r="F11" s="8" t="n"/>
+      <c r="B11" s="9" t="n"/>
+      <c r="C11" s="9" t="n"/>
+      <c r="D11" s="9" t="n"/>
+      <c r="F11" s="9" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
@@ -680,14 +680,14 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B14" s="5" t="inlineStr">
+      <c r="B14" s="6" t="inlineStr">
         <is>
           <t>Modeling &amp; Simulation
 11:00-12:30
 room:Grey classroom: 203</t>
         </is>
       </c>
-      <c r="F14" s="6" t="inlineStr">
+      <c r="F14" s="7" t="inlineStr">
         <is>
           <t>Modeling &amp; Simulation
 11:00-12:30
@@ -701,8 +701,8 @@
           <t>11:15</t>
         </is>
       </c>
-      <c r="B15" s="7" t="n"/>
-      <c r="F15" s="7" t="n"/>
+      <c r="B15" s="8" t="n"/>
+      <c r="F15" s="8" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
@@ -710,8 +710,8 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B16" s="7" t="n"/>
-      <c r="F16" s="7" t="n"/>
+      <c r="B16" s="8" t="n"/>
+      <c r="F16" s="8" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
@@ -719,8 +719,8 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="B17" s="7" t="n"/>
-      <c r="F17" s="7" t="n"/>
+      <c r="B17" s="8" t="n"/>
+      <c r="F17" s="8" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
@@ -728,8 +728,8 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B18" s="7" t="n"/>
-      <c r="F18" s="7" t="n"/>
+      <c r="B18" s="8" t="n"/>
+      <c r="F18" s="8" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
@@ -737,8 +737,8 @@
           <t>12:15</t>
         </is>
       </c>
-      <c r="B19" s="8" t="n"/>
-      <c r="F19" s="8" t="n"/>
+      <c r="B19" s="9" t="n"/>
+      <c r="F19" s="9" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
@@ -788,25 +788,11 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="C26" s="5" t="inlineStr">
+      <c r="C26" s="7" t="inlineStr">
         <is>
           <t>Safety Management
 14:00-15:30
-room:Grey classroom: 203</t>
-        </is>
-      </c>
-      <c r="E26" s="9" t="inlineStr">
-        <is>
-          <t>Safety Management
-14:00-15:30
-room:Yellow classroom: 209</t>
-        </is>
-      </c>
-      <c r="F26" s="9" t="inlineStr">
-        <is>
-          <t>Final Year Project II
-14:00-15:30
-room:Yellow classroom: 209</t>
+room:Green classroom: 204</t>
         </is>
       </c>
     </row>
@@ -816,9 +802,7 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="C27" s="7" t="n"/>
-      <c r="E27" s="7" t="n"/>
-      <c r="F27" s="7" t="n"/>
+      <c r="C27" s="8" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="4" t="inlineStr">
@@ -826,9 +810,7 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="C28" s="7" t="n"/>
-      <c r="E28" s="7" t="n"/>
-      <c r="F28" s="7" t="n"/>
+      <c r="C28" s="8" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
@@ -836,9 +818,7 @@
           <t>14:45</t>
         </is>
       </c>
-      <c r="C29" s="7" t="n"/>
-      <c r="E29" s="7" t="n"/>
-      <c r="F29" s="7" t="n"/>
+      <c r="C29" s="8" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="4" t="inlineStr">
@@ -846,9 +826,7 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="C30" s="7" t="n"/>
-      <c r="E30" s="7" t="n"/>
-      <c r="F30" s="7" t="n"/>
+      <c r="C30" s="8" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
@@ -856,9 +834,7 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="C31" s="8" t="n"/>
-      <c r="E31" s="8" t="n"/>
-      <c r="F31" s="8" t="n"/>
+      <c r="C31" s="9" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
@@ -880,21 +856,21 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B34" s="9" t="inlineStr">
+      <c r="C34" s="10" t="inlineStr">
+        <is>
+          <t>Safety Management
+16:00-17:30
+room:Yellow classroom: 209</t>
+        </is>
+      </c>
+      <c r="D34" s="10" t="inlineStr">
         <is>
           <t>Final Year Project II
 16:00-17:30
 room:Yellow classroom: 209</t>
         </is>
       </c>
-      <c r="C34" s="10" t="inlineStr">
-        <is>
-          <t>Information Security
-16:00-17:30
-room:White classroom: 202</t>
-        </is>
-      </c>
-      <c r="F34" s="5" t="inlineStr">
+      <c r="F34" s="6" t="inlineStr">
         <is>
           <t>Internet of Things
 16:00-17:30
@@ -908,9 +884,9 @@
           <t>16:15</t>
         </is>
       </c>
-      <c r="B35" s="7" t="n"/>
-      <c r="C35" s="7" t="n"/>
-      <c r="F35" s="7" t="n"/>
+      <c r="C35" s="8" t="n"/>
+      <c r="D35" s="8" t="n"/>
+      <c r="F35" s="8" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="4" t="inlineStr">
@@ -918,9 +894,9 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="B36" s="7" t="n"/>
-      <c r="C36" s="7" t="n"/>
-      <c r="F36" s="7" t="n"/>
+      <c r="C36" s="8" t="n"/>
+      <c r="D36" s="8" t="n"/>
+      <c r="F36" s="8" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
@@ -928,9 +904,9 @@
           <t>16:45</t>
         </is>
       </c>
-      <c r="B37" s="7" t="n"/>
-      <c r="C37" s="7" t="n"/>
-      <c r="F37" s="7" t="n"/>
+      <c r="C37" s="8" t="n"/>
+      <c r="D37" s="8" t="n"/>
+      <c r="F37" s="8" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="4" t="inlineStr">
@@ -938,9 +914,9 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B38" s="7" t="n"/>
-      <c r="C38" s="7" t="n"/>
-      <c r="F38" s="7" t="n"/>
+      <c r="C38" s="8" t="n"/>
+      <c r="D38" s="8" t="n"/>
+      <c r="F38" s="8" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
@@ -948,9 +924,9 @@
           <t>17:15</t>
         </is>
       </c>
-      <c r="B39" s="8" t="n"/>
-      <c r="C39" s="8" t="n"/>
-      <c r="F39" s="8" t="n"/>
+      <c r="C39" s="9" t="n"/>
+      <c r="D39" s="9" t="n"/>
+      <c r="F39" s="9" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="4" t="inlineStr">
@@ -1142,25 +1118,23 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="17">
     <mergeCell ref="C34:C39"/>
+    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="C3:C4"/>
     <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="E3:E4"/>
     <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B6:B11"/>
     <mergeCell ref="F3:F4"/>
+    <mergeCell ref="D3:D4"/>
     <mergeCell ref="C6:C11"/>
     <mergeCell ref="F34:F39"/>
     <mergeCell ref="D6:D11"/>
+    <mergeCell ref="D34:D39"/>
     <mergeCell ref="F6:F11"/>
-    <mergeCell ref="C26:C31"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="D3:D4"/>
     <mergeCell ref="B14:B19"/>
-    <mergeCell ref="F26:F31"/>
-    <mergeCell ref="B34:B39"/>
-    <mergeCell ref="E26:E31"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="B6:B11"/>
     <mergeCell ref="F14:F19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/xlsx_files/CS Senior.xlsx
+++ b/xlsx_files/CS Senior.xlsx
@@ -135,15 +135,15 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -583,21 +583,7 @@
 room:Creative room: 104</t>
         </is>
       </c>
-      <c r="C6" s="6" t="inlineStr">
-        <is>
-          <t>Information Security
-09:00-10:30
-room:Grey classroom: 203</t>
-        </is>
-      </c>
-      <c r="D6" s="6" t="inlineStr">
-        <is>
-          <t>Modeling &amp; Simulation
-09:00-10:30
-room:Grey classroom: 203</t>
-        </is>
-      </c>
-      <c r="F6" s="7" t="inlineStr">
+      <c r="F6" s="6" t="inlineStr">
         <is>
           <t>Information Security
 09:00-10:30
@@ -611,10 +597,8 @@
           <t>09:15</t>
         </is>
       </c>
-      <c r="B7" s="8" t="n"/>
-      <c r="C7" s="8" t="n"/>
-      <c r="D7" s="8" t="n"/>
-      <c r="F7" s="8" t="n"/>
+      <c r="B7" s="7" t="n"/>
+      <c r="F7" s="7" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
@@ -622,10 +606,8 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B8" s="8" t="n"/>
-      <c r="C8" s="8" t="n"/>
-      <c r="D8" s="8" t="n"/>
-      <c r="F8" s="8" t="n"/>
+      <c r="B8" s="7" t="n"/>
+      <c r="F8" s="7" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
@@ -633,10 +615,8 @@
           <t>09:45</t>
         </is>
       </c>
-      <c r="B9" s="8" t="n"/>
-      <c r="C9" s="8" t="n"/>
-      <c r="D9" s="8" t="n"/>
-      <c r="F9" s="8" t="n"/>
+      <c r="B9" s="7" t="n"/>
+      <c r="F9" s="7" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
@@ -644,10 +624,8 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B10" s="8" t="n"/>
-      <c r="C10" s="8" t="n"/>
-      <c r="D10" s="8" t="n"/>
-      <c r="F10" s="8" t="n"/>
+      <c r="B10" s="7" t="n"/>
+      <c r="F10" s="7" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
@@ -655,10 +633,8 @@
           <t>10:15</t>
         </is>
       </c>
-      <c r="B11" s="9" t="n"/>
-      <c r="C11" s="9" t="n"/>
-      <c r="D11" s="9" t="n"/>
-      <c r="F11" s="9" t="n"/>
+      <c r="B11" s="8" t="n"/>
+      <c r="F11" s="8" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
@@ -680,14 +656,28 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B14" s="6" t="inlineStr">
-        <is>
-          <t>Modeling &amp; Simulation
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>Internet of Things
 11:00-12:30
-room:Grey classroom: 203</t>
-        </is>
-      </c>
-      <c r="F14" s="7" t="inlineStr">
+room:White classroom: 202</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="inlineStr">
+        <is>
+          <t>Information Security
+11:00-12:30
+room:White classroom: 202</t>
+        </is>
+      </c>
+      <c r="E14" s="5" t="inlineStr">
+        <is>
+          <t>Internet of Things
+11:00-12:30
+room:White classroom: 202</t>
+        </is>
+      </c>
+      <c r="F14" s="6" t="inlineStr">
         <is>
           <t>Modeling &amp; Simulation
 11:00-12:30
@@ -701,8 +691,10 @@
           <t>11:15</t>
         </is>
       </c>
-      <c r="B15" s="8" t="n"/>
-      <c r="F15" s="8" t="n"/>
+      <c r="C15" s="7" t="n"/>
+      <c r="D15" s="7" t="n"/>
+      <c r="E15" s="7" t="n"/>
+      <c r="F15" s="7" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
@@ -710,8 +702,10 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B16" s="8" t="n"/>
-      <c r="F16" s="8" t="n"/>
+      <c r="C16" s="7" t="n"/>
+      <c r="D16" s="7" t="n"/>
+      <c r="E16" s="7" t="n"/>
+      <c r="F16" s="7" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
@@ -719,8 +713,10 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="B17" s="8" t="n"/>
-      <c r="F17" s="8" t="n"/>
+      <c r="C17" s="7" t="n"/>
+      <c r="D17" s="7" t="n"/>
+      <c r="E17" s="7" t="n"/>
+      <c r="F17" s="7" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
@@ -728,8 +724,10 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B18" s="8" t="n"/>
-      <c r="F18" s="8" t="n"/>
+      <c r="C18" s="7" t="n"/>
+      <c r="D18" s="7" t="n"/>
+      <c r="E18" s="7" t="n"/>
+      <c r="F18" s="7" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
@@ -737,8 +735,10 @@
           <t>12:15</t>
         </is>
       </c>
-      <c r="B19" s="9" t="n"/>
-      <c r="F19" s="9" t="n"/>
+      <c r="C19" s="8" t="n"/>
+      <c r="D19" s="8" t="n"/>
+      <c r="E19" s="8" t="n"/>
+      <c r="F19" s="8" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
@@ -788,7 +788,28 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="C26" s="7" t="inlineStr">
+      <c r="B26" s="5" t="inlineStr">
+        <is>
+          <t>Information Security
+14:00-15:30
+room:White classroom: 202</t>
+        </is>
+      </c>
+      <c r="C26" s="9" t="inlineStr">
+        <is>
+          <t>Safety Management
+14:00-15:30
+room:Yellow classroom: 209</t>
+        </is>
+      </c>
+      <c r="D26" s="9" t="inlineStr">
+        <is>
+          <t>Final Year Project II
+14:00-15:30
+room:Yellow classroom: 209</t>
+        </is>
+      </c>
+      <c r="E26" s="6" t="inlineStr">
         <is>
           <t>Safety Management
 14:00-15:30
@@ -802,7 +823,10 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="C27" s="8" t="n"/>
+      <c r="B27" s="7" t="n"/>
+      <c r="C27" s="7" t="n"/>
+      <c r="D27" s="7" t="n"/>
+      <c r="E27" s="7" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="4" t="inlineStr">
@@ -810,7 +834,10 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="C28" s="8" t="n"/>
+      <c r="B28" s="7" t="n"/>
+      <c r="C28" s="7" t="n"/>
+      <c r="D28" s="7" t="n"/>
+      <c r="E28" s="7" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
@@ -818,7 +845,10 @@
           <t>14:45</t>
         </is>
       </c>
-      <c r="C29" s="8" t="n"/>
+      <c r="B29" s="7" t="n"/>
+      <c r="C29" s="7" t="n"/>
+      <c r="D29" s="7" t="n"/>
+      <c r="E29" s="7" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="4" t="inlineStr">
@@ -826,7 +856,10 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="C30" s="8" t="n"/>
+      <c r="B30" s="7" t="n"/>
+      <c r="C30" s="7" t="n"/>
+      <c r="D30" s="7" t="n"/>
+      <c r="E30" s="7" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
@@ -834,7 +867,10 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="C31" s="9" t="n"/>
+      <c r="B31" s="8" t="n"/>
+      <c r="C31" s="8" t="n"/>
+      <c r="D31" s="8" t="n"/>
+      <c r="E31" s="8" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
@@ -856,21 +892,7 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="C34" s="10" t="inlineStr">
-        <is>
-          <t>Safety Management
-16:00-17:30
-room:Yellow classroom: 209</t>
-        </is>
-      </c>
-      <c r="D34" s="10" t="inlineStr">
-        <is>
-          <t>Final Year Project II
-16:00-17:30
-room:Yellow classroom: 209</t>
-        </is>
-      </c>
-      <c r="F34" s="6" t="inlineStr">
+      <c r="F34" s="10" t="inlineStr">
         <is>
           <t>Internet of Things
 16:00-17:30
@@ -884,9 +906,7 @@
           <t>16:15</t>
         </is>
       </c>
-      <c r="C35" s="8" t="n"/>
-      <c r="D35" s="8" t="n"/>
-      <c r="F35" s="8" t="n"/>
+      <c r="F35" s="7" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="4" t="inlineStr">
@@ -894,9 +914,7 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="C36" s="8" t="n"/>
-      <c r="D36" s="8" t="n"/>
-      <c r="F36" s="8" t="n"/>
+      <c r="F36" s="7" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
@@ -904,9 +922,7 @@
           <t>16:45</t>
         </is>
       </c>
-      <c r="C37" s="8" t="n"/>
-      <c r="D37" s="8" t="n"/>
-      <c r="F37" s="8" t="n"/>
+      <c r="F37" s="7" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="4" t="inlineStr">
@@ -914,9 +930,7 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="C38" s="8" t="n"/>
-      <c r="D38" s="8" t="n"/>
-      <c r="F38" s="8" t="n"/>
+      <c r="F38" s="7" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
@@ -924,9 +938,7 @@
           <t>17:15</t>
         </is>
       </c>
-      <c r="C39" s="9" t="n"/>
-      <c r="D39" s="9" t="n"/>
-      <c r="F39" s="9" t="n"/>
+      <c r="F39" s="8" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="4" t="inlineStr">
@@ -1118,24 +1130,25 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="C34:C39"/>
+  <mergeCells count="18">
+    <mergeCell ref="D14:D19"/>
+    <mergeCell ref="F6:F11"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="E26:E31"/>
     <mergeCell ref="C26:C31"/>
+    <mergeCell ref="D26:D31"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="F14:F19"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="B6:B11"/>
     <mergeCell ref="F34:F39"/>
-    <mergeCell ref="D6:D11"/>
-    <mergeCell ref="D34:D39"/>
-    <mergeCell ref="F6:F11"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="F14:F19"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="E14:E19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/xlsx_files/CS Senior.xlsx
+++ b/xlsx_files/CS Senior.xlsx
@@ -43,7 +43,7 @@
       <sz val="14"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill/>
     </fill>
@@ -58,8 +58,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFFFF"/>
-        <bgColor rgb="00FFFFFF"/>
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0092D050"/>
+        <bgColor rgb="0092D050"/>
       </patternFill>
     </fill>
     <fill>
@@ -70,14 +76,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0092D050"/>
-        <bgColor rgb="0092D050"/>
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFF00"/>
-        <bgColor rgb="00FFFF00"/>
+        <fgColor rgb="00FFFFFF"/>
+        <bgColor rgb="00FFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -132,18 +138,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -578,16 +584,16 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>Final Year Project II
+          <t>Modeling &amp; Simulation
 09:00-10:30
-room:Creative room: 104</t>
-        </is>
-      </c>
-      <c r="F6" s="6" t="inlineStr">
-        <is>
-          <t>Information Security
+room:204</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>Modeling &amp; Simulation
 09:00-10:30
-room:Green classroom: 204</t>
+room:204</t>
         </is>
       </c>
     </row>
@@ -597,8 +603,8 @@
           <t>09:15</t>
         </is>
       </c>
-      <c r="B7" s="7" t="n"/>
-      <c r="F7" s="7" t="n"/>
+      <c r="B7" s="6" t="n"/>
+      <c r="F7" s="6" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
@@ -606,8 +612,8 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B8" s="7" t="n"/>
-      <c r="F8" s="7" t="n"/>
+      <c r="B8" s="6" t="n"/>
+      <c r="F8" s="6" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
@@ -615,8 +621,8 @@
           <t>09:45</t>
         </is>
       </c>
-      <c r="B9" s="7" t="n"/>
-      <c r="F9" s="7" t="n"/>
+      <c r="B9" s="6" t="n"/>
+      <c r="F9" s="6" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
@@ -624,8 +630,8 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B10" s="7" t="n"/>
-      <c r="F10" s="7" t="n"/>
+      <c r="B10" s="6" t="n"/>
+      <c r="F10" s="6" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
@@ -633,8 +639,8 @@
           <t>10:15</t>
         </is>
       </c>
-      <c r="B11" s="8" t="n"/>
-      <c r="F11" s="8" t="n"/>
+      <c r="B11" s="7" t="n"/>
+      <c r="F11" s="7" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
@@ -656,32 +662,18 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr">
+      <c r="E14" s="8" t="inlineStr">
+        <is>
+          <t>Final Year Project II
+11:00-12:30
+room:209</t>
+        </is>
+      </c>
+      <c r="F14" s="5" t="inlineStr">
         <is>
           <t>Internet of Things
 11:00-12:30
-room:White classroom: 202</t>
-        </is>
-      </c>
-      <c r="D14" s="5" t="inlineStr">
-        <is>
-          <t>Information Security
-11:00-12:30
-room:White classroom: 202</t>
-        </is>
-      </c>
-      <c r="E14" s="5" t="inlineStr">
-        <is>
-          <t>Internet of Things
-11:00-12:30
-room:White classroom: 202</t>
-        </is>
-      </c>
-      <c r="F14" s="6" t="inlineStr">
-        <is>
-          <t>Modeling &amp; Simulation
-11:00-12:30
-room:Green classroom: 204</t>
+room:204</t>
         </is>
       </c>
     </row>
@@ -691,10 +683,8 @@
           <t>11:15</t>
         </is>
       </c>
-      <c r="C15" s="7" t="n"/>
-      <c r="D15" s="7" t="n"/>
-      <c r="E15" s="7" t="n"/>
-      <c r="F15" s="7" t="n"/>
+      <c r="E15" s="6" t="n"/>
+      <c r="F15" s="6" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
@@ -702,10 +692,8 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="C16" s="7" t="n"/>
-      <c r="D16" s="7" t="n"/>
-      <c r="E16" s="7" t="n"/>
-      <c r="F16" s="7" t="n"/>
+      <c r="E16" s="6" t="n"/>
+      <c r="F16" s="6" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
@@ -713,10 +701,8 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="C17" s="7" t="n"/>
-      <c r="D17" s="7" t="n"/>
-      <c r="E17" s="7" t="n"/>
-      <c r="F17" s="7" t="n"/>
+      <c r="E17" s="6" t="n"/>
+      <c r="F17" s="6" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
@@ -724,10 +710,8 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="C18" s="7" t="n"/>
-      <c r="D18" s="7" t="n"/>
-      <c r="E18" s="7" t="n"/>
-      <c r="F18" s="7" t="n"/>
+      <c r="E18" s="6" t="n"/>
+      <c r="F18" s="6" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
@@ -735,10 +719,8 @@
           <t>12:15</t>
         </is>
       </c>
-      <c r="C19" s="8" t="n"/>
-      <c r="D19" s="8" t="n"/>
-      <c r="E19" s="8" t="n"/>
-      <c r="F19" s="8" t="n"/>
+      <c r="E19" s="7" t="n"/>
+      <c r="F19" s="7" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
@@ -788,32 +770,18 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B26" s="5" t="inlineStr">
+      <c r="B26" s="9" t="inlineStr">
         <is>
           <t>Information Security
 14:00-15:30
-room:White classroom: 202</t>
-        </is>
-      </c>
-      <c r="C26" s="9" t="inlineStr">
-        <is>
-          <t>Safety Management
-14:00-15:30
-room:Yellow classroom: 209</t>
-        </is>
-      </c>
-      <c r="D26" s="9" t="inlineStr">
+room:104</t>
+        </is>
+      </c>
+      <c r="E26" s="8" t="inlineStr">
         <is>
           <t>Final Year Project II
 14:00-15:30
-room:Yellow classroom: 209</t>
-        </is>
-      </c>
-      <c r="E26" s="6" t="inlineStr">
-        <is>
-          <t>Safety Management
-14:00-15:30
-room:Green classroom: 204</t>
+room:209</t>
         </is>
       </c>
     </row>
@@ -823,10 +791,8 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="B27" s="7" t="n"/>
-      <c r="C27" s="7" t="n"/>
-      <c r="D27" s="7" t="n"/>
-      <c r="E27" s="7" t="n"/>
+      <c r="B27" s="6" t="n"/>
+      <c r="E27" s="6" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="4" t="inlineStr">
@@ -834,10 +800,8 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B28" s="7" t="n"/>
-      <c r="C28" s="7" t="n"/>
-      <c r="D28" s="7" t="n"/>
-      <c r="E28" s="7" t="n"/>
+      <c r="B28" s="6" t="n"/>
+      <c r="E28" s="6" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
@@ -845,10 +809,8 @@
           <t>14:45</t>
         </is>
       </c>
-      <c r="B29" s="7" t="n"/>
-      <c r="C29" s="7" t="n"/>
-      <c r="D29" s="7" t="n"/>
-      <c r="E29" s="7" t="n"/>
+      <c r="B29" s="6" t="n"/>
+      <c r="E29" s="6" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="4" t="inlineStr">
@@ -856,10 +818,8 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B30" s="7" t="n"/>
-      <c r="C30" s="7" t="n"/>
-      <c r="D30" s="7" t="n"/>
-      <c r="E30" s="7" t="n"/>
+      <c r="B30" s="6" t="n"/>
+      <c r="E30" s="6" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
@@ -867,10 +827,8 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="B31" s="8" t="n"/>
-      <c r="C31" s="8" t="n"/>
-      <c r="D31" s="8" t="n"/>
-      <c r="E31" s="8" t="n"/>
+      <c r="B31" s="7" t="n"/>
+      <c r="E31" s="7" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
@@ -892,11 +850,25 @@
           <t>16:00</t>
         </is>
       </c>
+      <c r="B34" s="8" t="inlineStr">
+        <is>
+          <t>Safety Management
+16:00-17:30
+room:209</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="inlineStr">
+        <is>
+          <t>Modeling &amp; Simulation
+16:00-17:30
+room:104</t>
+        </is>
+      </c>
       <c r="F34" s="10" t="inlineStr">
         <is>
-          <t>Internet of Things
+          <t>Safety Management
 16:00-17:30
-room:Grey classroom: 203</t>
+room:201</t>
         </is>
       </c>
     </row>
@@ -906,7 +878,9 @@
           <t>16:15</t>
         </is>
       </c>
-      <c r="F35" s="7" t="n"/>
+      <c r="B35" s="6" t="n"/>
+      <c r="D35" s="6" t="n"/>
+      <c r="F35" s="6" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="4" t="inlineStr">
@@ -914,7 +888,9 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="F36" s="7" t="n"/>
+      <c r="B36" s="6" t="n"/>
+      <c r="D36" s="6" t="n"/>
+      <c r="F36" s="6" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
@@ -922,7 +898,9 @@
           <t>16:45</t>
         </is>
       </c>
-      <c r="F37" s="7" t="n"/>
+      <c r="B37" s="6" t="n"/>
+      <c r="D37" s="6" t="n"/>
+      <c r="F37" s="6" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="4" t="inlineStr">
@@ -930,7 +908,9 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="F38" s="7" t="n"/>
+      <c r="B38" s="6" t="n"/>
+      <c r="D38" s="6" t="n"/>
+      <c r="F38" s="6" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
@@ -938,7 +918,9 @@
           <t>17:15</t>
         </is>
       </c>
-      <c r="F39" s="8" t="n"/>
+      <c r="B39" s="7" t="n"/>
+      <c r="D39" s="7" t="n"/>
+      <c r="F39" s="7" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="4" t="inlineStr">
@@ -1130,13 +1112,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="D14:D19"/>
-    <mergeCell ref="F6:F11"/>
+  <mergeCells count="16">
     <mergeCell ref="B26:B31"/>
     <mergeCell ref="E26:E31"/>
-    <mergeCell ref="C26:C31"/>
-    <mergeCell ref="D26:D31"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="A3:A4"/>
@@ -1145,9 +1123,11 @@
     <mergeCell ref="F14:F19"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D34:D39"/>
+    <mergeCell ref="F34:F39"/>
     <mergeCell ref="B6:B11"/>
-    <mergeCell ref="F34:F39"/>
-    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="F6:F11"/>
     <mergeCell ref="E14:E19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/xlsx_files/CS Senior.xlsx
+++ b/xlsx_files/CS Senior.xlsx
@@ -58,8 +58,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFF00"/>
-        <bgColor rgb="00FFFF00"/>
+        <fgColor rgb="00FFFFFF"/>
+        <bgColor rgb="00FFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -70,8 +70,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D0CECE"/>
-        <bgColor rgb="00D0CECE"/>
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -82,8 +82,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFFFF"/>
-        <bgColor rgb="00FFFFFF"/>
+        <fgColor rgb="00D0CECE"/>
+        <bgColor rgb="00D0CECE"/>
       </patternFill>
     </fill>
   </fills>
@@ -126,7 +126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -138,18 +138,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -586,14 +589,14 @@
         <is>
           <t>Modeling &amp; Simulation
 09:00-10:30
-room:204</t>
-        </is>
-      </c>
-      <c r="F6" s="5" t="inlineStr">
-        <is>
-          <t>Modeling &amp; Simulation
+room:209</t>
+        </is>
+      </c>
+      <c r="E6" s="6" t="inlineStr">
+        <is>
+          <t>Safety Management
 09:00-10:30
-room:204</t>
+room:202</t>
         </is>
       </c>
     </row>
@@ -603,8 +606,8 @@
           <t>09:15</t>
         </is>
       </c>
-      <c r="B7" s="6" t="n"/>
-      <c r="F7" s="6" t="n"/>
+      <c r="B7" s="7" t="n"/>
+      <c r="E7" s="7" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
@@ -612,8 +615,8 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B8" s="6" t="n"/>
-      <c r="F8" s="6" t="n"/>
+      <c r="B8" s="7" t="n"/>
+      <c r="E8" s="7" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
@@ -621,8 +624,8 @@
           <t>09:45</t>
         </is>
       </c>
-      <c r="B9" s="6" t="n"/>
-      <c r="F9" s="6" t="n"/>
+      <c r="B9" s="7" t="n"/>
+      <c r="E9" s="7" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
@@ -630,8 +633,8 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B10" s="6" t="n"/>
-      <c r="F10" s="6" t="n"/>
+      <c r="B10" s="7" t="n"/>
+      <c r="E10" s="7" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
@@ -639,8 +642,8 @@
           <t>10:15</t>
         </is>
       </c>
-      <c r="B11" s="7" t="n"/>
-      <c r="F11" s="7" t="n"/>
+      <c r="B11" s="8" t="n"/>
+      <c r="E11" s="8" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
@@ -662,18 +665,32 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="E14" s="8" t="inlineStr">
+      <c r="B14" s="9" t="inlineStr">
         <is>
           <t>Final Year Project II
 11:00-12:30
-room:209</t>
-        </is>
-      </c>
-      <c r="F14" s="5" t="inlineStr">
+room:201</t>
+        </is>
+      </c>
+      <c r="D14" s="9" t="inlineStr">
+        <is>
+          <t>Modeling &amp; Simulation
+11:00-12:30
+room:201</t>
+        </is>
+      </c>
+      <c r="E14" s="5" t="inlineStr">
         <is>
           <t>Internet of Things
 11:00-12:30
-room:204</t>
+room:209</t>
+        </is>
+      </c>
+      <c r="F14" s="6" t="inlineStr">
+        <is>
+          <t>Internet of Things
+11:00-12:30
+room:104</t>
         </is>
       </c>
     </row>
@@ -683,8 +700,10 @@
           <t>11:15</t>
         </is>
       </c>
-      <c r="E15" s="6" t="n"/>
-      <c r="F15" s="6" t="n"/>
+      <c r="B15" s="7" t="n"/>
+      <c r="D15" s="7" t="n"/>
+      <c r="E15" s="7" t="n"/>
+      <c r="F15" s="7" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
@@ -692,8 +711,10 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="E16" s="6" t="n"/>
-      <c r="F16" s="6" t="n"/>
+      <c r="B16" s="7" t="n"/>
+      <c r="D16" s="7" t="n"/>
+      <c r="E16" s="7" t="n"/>
+      <c r="F16" s="7" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
@@ -701,8 +722,10 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="E17" s="6" t="n"/>
-      <c r="F17" s="6" t="n"/>
+      <c r="B17" s="7" t="n"/>
+      <c r="D17" s="7" t="n"/>
+      <c r="E17" s="7" t="n"/>
+      <c r="F17" s="7" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
@@ -710,8 +733,10 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="E18" s="6" t="n"/>
-      <c r="F18" s="6" t="n"/>
+      <c r="B18" s="7" t="n"/>
+      <c r="D18" s="7" t="n"/>
+      <c r="E18" s="7" t="n"/>
+      <c r="F18" s="7" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
@@ -719,8 +744,10 @@
           <t>12:15</t>
         </is>
       </c>
-      <c r="E19" s="7" t="n"/>
-      <c r="F19" s="7" t="n"/>
+      <c r="B19" s="8" t="n"/>
+      <c r="D19" s="8" t="n"/>
+      <c r="E19" s="8" t="n"/>
+      <c r="F19" s="8" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
@@ -770,18 +797,32 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B26" s="9" t="inlineStr">
+      <c r="C26" s="10" t="inlineStr">
+        <is>
+          <t>Final Year Project II
+14:00-15:30
+room:203</t>
+        </is>
+      </c>
+      <c r="D26" s="11" t="inlineStr">
         <is>
           <t>Information Security
 14:00-15:30
-room:104</t>
-        </is>
-      </c>
-      <c r="E26" s="8" t="inlineStr">
-        <is>
-          <t>Final Year Project II
+room:204</t>
+        </is>
+      </c>
+      <c r="E26" s="9" t="inlineStr">
+        <is>
+          <t>Information Security
 14:00-15:30
-room:209</t>
+room:201</t>
+        </is>
+      </c>
+      <c r="F26" s="11" t="inlineStr">
+        <is>
+          <t>Modeling &amp; Simulation
+14:00-15:30
+room:204</t>
         </is>
       </c>
     </row>
@@ -791,8 +832,10 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="B27" s="6" t="n"/>
-      <c r="E27" s="6" t="n"/>
+      <c r="C27" s="7" t="n"/>
+      <c r="D27" s="7" t="n"/>
+      <c r="E27" s="7" t="n"/>
+      <c r="F27" s="7" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="4" t="inlineStr">
@@ -800,8 +843,10 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B28" s="6" t="n"/>
-      <c r="E28" s="6" t="n"/>
+      <c r="C28" s="7" t="n"/>
+      <c r="D28" s="7" t="n"/>
+      <c r="E28" s="7" t="n"/>
+      <c r="F28" s="7" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
@@ -809,8 +854,10 @@
           <t>14:45</t>
         </is>
       </c>
-      <c r="B29" s="6" t="n"/>
-      <c r="E29" s="6" t="n"/>
+      <c r="C29" s="7" t="n"/>
+      <c r="D29" s="7" t="n"/>
+      <c r="E29" s="7" t="n"/>
+      <c r="F29" s="7" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="4" t="inlineStr">
@@ -818,8 +865,10 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B30" s="6" t="n"/>
-      <c r="E30" s="6" t="n"/>
+      <c r="C30" s="7" t="n"/>
+      <c r="D30" s="7" t="n"/>
+      <c r="E30" s="7" t="n"/>
+      <c r="F30" s="7" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
@@ -827,8 +876,10 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="B31" s="7" t="n"/>
-      <c r="E31" s="7" t="n"/>
+      <c r="C31" s="8" t="n"/>
+      <c r="D31" s="8" t="n"/>
+      <c r="E31" s="8" t="n"/>
+      <c r="F31" s="8" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
@@ -850,27 +901,20 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B34" s="8" t="inlineStr">
-        <is>
-          <t>Safety Management
+      <c r="D34" s="11" t="inlineStr">
+        <is>
+          <t>Information Security
+16:00-17:30
+room:204</t>
+        </is>
+      </c>
+      <c r="E34" s="5" t="inlineStr">
+        <is>
+          <t>Internet of Things
 16:00-17:30
 room:209</t>
         </is>
       </c>
-      <c r="D34" s="9" t="inlineStr">
-        <is>
-          <t>Modeling &amp; Simulation
-16:00-17:30
-room:104</t>
-        </is>
-      </c>
-      <c r="F34" s="10" t="inlineStr">
-        <is>
-          <t>Safety Management
-16:00-17:30
-room:201</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="4" t="inlineStr">
@@ -878,9 +922,8 @@
           <t>16:15</t>
         </is>
       </c>
-      <c r="B35" s="6" t="n"/>
-      <c r="D35" s="6" t="n"/>
-      <c r="F35" s="6" t="n"/>
+      <c r="D35" s="7" t="n"/>
+      <c r="E35" s="7" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="4" t="inlineStr">
@@ -888,9 +931,8 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="B36" s="6" t="n"/>
-      <c r="D36" s="6" t="n"/>
-      <c r="F36" s="6" t="n"/>
+      <c r="D36" s="7" t="n"/>
+      <c r="E36" s="7" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
@@ -898,9 +940,8 @@
           <t>16:45</t>
         </is>
       </c>
-      <c r="B37" s="6" t="n"/>
-      <c r="D37" s="6" t="n"/>
-      <c r="F37" s="6" t="n"/>
+      <c r="D37" s="7" t="n"/>
+      <c r="E37" s="7" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="4" t="inlineStr">
@@ -908,9 +949,8 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B38" s="6" t="n"/>
-      <c r="D38" s="6" t="n"/>
-      <c r="F38" s="6" t="n"/>
+      <c r="D38" s="7" t="n"/>
+      <c r="E38" s="7" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
@@ -918,9 +958,8 @@
           <t>17:15</t>
         </is>
       </c>
-      <c r="B39" s="7" t="n"/>
-      <c r="D39" s="7" t="n"/>
-      <c r="F39" s="7" t="n"/>
+      <c r="D39" s="8" t="n"/>
+      <c r="E39" s="8" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="4" t="inlineStr">
@@ -1112,23 +1151,26 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="B26:B31"/>
+  <mergeCells count="19">
+    <mergeCell ref="D26:D31"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="D34:D39"/>
+    <mergeCell ref="E14:E19"/>
+    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E34:E39"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="F26:F31"/>
+    <mergeCell ref="E6:E11"/>
     <mergeCell ref="E26:E31"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A3:A4"/>
     <mergeCell ref="E3:E4"/>
-    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="D14:D19"/>
     <mergeCell ref="F14:F19"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D34:D39"/>
-    <mergeCell ref="F34:F39"/>
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="B34:B39"/>
-    <mergeCell ref="F6:F11"/>
-    <mergeCell ref="E14:E19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
